--- a/data/input_operation/OperationScenario_Component_Vehicle.xlsx
+++ b/data/input_operation/OperationScenario_Component_Vehicle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14660"/>
+    <workbookView windowWidth="27860" windowHeight="14260"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Vehicle" sheetId="1" r:id="rId1"/>
@@ -72,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -91,9 +91,71 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -107,137 +169,75 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -262,181 +262,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,9 +450,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="8" tint="0.399975585192419"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color theme="8" tint="0.399975585192419"/>
@@ -463,7 +461,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="8" tint="0.399975585192419"/>
+      </left>
       <right/>
       <top style="thin">
         <color theme="8" tint="0.399975585192419"/>
@@ -496,26 +496,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,16 +538,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,16 +561,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -587,148 +587,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -800,8 +800,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M2" totalsRowShown="0">
-  <autoFilter ref="A1:M2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M3" totalsRowShown="0">
+  <autoFilter ref="A1:M3"/>
   <tableColumns count="13">
     <tableColumn id="1" name="ID_Vehicle"/>
     <tableColumn id="2" name="type"/>
@@ -1079,13 +1079,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.859375" customWidth="1"/>
@@ -1147,44 +1147,87 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1">
+    <row r="2" spans="1:15">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
+        <v>150000</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H2" s="1">
+        <v>688000</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="K2" s="1">
+        <v>688000</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M3" s="4">
         <v>0</v>
       </c>
     </row>

--- a/data/input_operation/OperationScenario_Component_Vehicle.xlsx
+++ b/data/input_operation/OperationScenario_Component_Vehicle.xlsx
@@ -73,9 +73,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -94,13 +94,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -114,7 +107,74 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,33 +189,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,75 +203,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,25 +256,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,37 +418,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,115 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,6 +496,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -507,6 +516,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,50 +550,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -584,121 +564,141 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,25 +707,25 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1081,8 +1081,8 @@
   <sheetPr/>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14" outlineLevelRow="2"/>
@@ -1155,13 +1155,13 @@
         <v>13</v>
       </c>
       <c r="C2" s="1">
-        <v>150000</v>
+        <v>62100</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
@@ -1170,7 +1170,7 @@
         <v>0.95</v>
       </c>
       <c r="H2" s="1">
-        <v>688000</v>
+        <v>6133</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>16</v>
@@ -1179,7 +1179,7 @@
         <v>0.96</v>
       </c>
       <c r="K2" s="1">
-        <v>688000</v>
+        <v>6133</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>16</v>

--- a/data/input_operation/OperationScenario_Component_Vehicle.xlsx
+++ b/data/input_operation/OperationScenario_Component_Vehicle.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F7ADF97-7770-43D3-B6C2-16D290E77A8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EADA217-017F-437B-A912-A0BFF305387E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Veh" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>ID_Vehicle</t>
   </si>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -910,10 +910,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -966,77 +968,36 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>62100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
       <c r="G2">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>6133</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
       </c>
       <c r="J2">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>6133</v>
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
       </c>
       <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3">
         <v>0</v>
       </c>
     </row>

--- a/data/input_operation/OperationScenario_Component_Vehicle.xlsx
+++ b/data/input_operation/OperationScenario_Component_Vehicle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/Flex/data/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F7ADF97-7770-43D3-B6C2-16D290E77A8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D116AEC6-7535-2146-8643-6AC57070F715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25300" windowHeight="9160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Veh" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>ID_Vehicle</t>
   </si>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -558,48 +558,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -615,7 +615,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -910,14 +910,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -958,7 +973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -999,7 +1014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1007,36 +1022,77 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>62100</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6133</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>6133</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
       </c>
       <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
     </row>

--- a/data/input_operation/OperationScenario_Component_Vehicle.xlsx
+++ b/data/input_operation/OperationScenario_Component_Vehicle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/Flex/data/input_operation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D116AEC6-7535-2146-8643-6AC57070F715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF33C77-3389-4CB9-8B70-11133605B8A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="25300" windowHeight="9160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>ID_Vehicle</t>
   </si>
@@ -558,48 +558,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -615,7 +615,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -911,28 +911,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.36328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -973,7 +973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -981,7 +981,7 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>62100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -1012,88 +1012,6 @@
       </c>
       <c r="M2">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>62100</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>0.95</v>
-      </c>
-      <c r="H3">
-        <v>6133</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3">
-        <v>0.96</v>
-      </c>
-      <c r="K3">
-        <v>6133</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/input_operation/OperationScenario_Component_Vehicle.xlsx
+++ b/data/input_operation/OperationScenario_Component_Vehicle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF33C77-3389-4CB9-8B70-11133605B8A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8548A6EB-EDDC-7947-9610-6B0E7DDB125D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="25300" windowHeight="9160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7540" yWindow="-20620" windowWidth="27600" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Veh" sheetId="1" r:id="rId1"/>
@@ -558,48 +558,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -615,7 +615,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -914,25 +914,25 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -973,7 +973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1016,5 +1016,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/input_operation/OperationScenario_Component_Vehicle.xlsx
+++ b/data/input_operation/OperationScenario_Component_Vehicle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8548A6EB-EDDC-7947-9610-6B0E7DDB125D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF80F3C-5E45-AB4F-A87B-51E8BE91B4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-7540" yWindow="-20620" windowWidth="27600" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="17">
   <si>
     <t>ID_Vehicle</t>
   </si>
@@ -911,14 +911,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
@@ -975,19 +977,19 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>199411</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>69000</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -996,22 +998,391 @@
         <v>0.95</v>
       </c>
       <c r="H2">
-        <v>6133</v>
+        <v>6130</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
       </c>
       <c r="J2">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="K2">
-        <v>6133</v>
+        <v>6130</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>199421</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>38000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>153</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>0.95</v>
+      </c>
+      <c r="H3">
+        <v>6130</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>0.9</v>
+      </c>
+      <c r="K3">
+        <v>6130</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>199451</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>69000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>188</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>0.95</v>
+      </c>
+      <c r="H4">
+        <v>6130</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>0.9</v>
+      </c>
+      <c r="K4">
+        <v>6130</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>199461</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>100000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>203</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>0.95</v>
+      </c>
+      <c r="H5">
+        <v>6130</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <v>0.9</v>
+      </c>
+      <c r="K5">
+        <v>6130</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>199462</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>38000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>153</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>0.95</v>
+      </c>
+      <c r="H6">
+        <v>6130</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6">
+        <v>0.9</v>
+      </c>
+      <c r="K6">
+        <v>6130</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>199491</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>69000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>188</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>0.95</v>
+      </c>
+      <c r="H7">
+        <v>6130</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <v>0.9</v>
+      </c>
+      <c r="K7">
+        <v>6130</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>199511</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>69000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>188</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>0.95</v>
+      </c>
+      <c r="H8">
+        <v>6130</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8">
+        <v>0.9</v>
+      </c>
+      <c r="K8">
+        <v>6130</v>
+      </c>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>199521</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>38000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>153</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>0.95</v>
+      </c>
+      <c r="H9">
+        <v>6130</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9">
+        <v>0.9</v>
+      </c>
+      <c r="K9">
+        <v>6130</v>
+      </c>
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>199562</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>38000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>153</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>0.95</v>
+      </c>
+      <c r="H10">
+        <v>6130</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10">
+        <v>0.9</v>
+      </c>
+      <c r="K10">
+        <v>6130</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1994101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>100000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>203</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>0.95</v>
+      </c>
+      <c r="H11">
+        <v>6130</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11">
+        <v>0.9</v>
+      </c>
+      <c r="K11">
+        <v>6130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/input_operation/OperationScenario_Component_Vehicle.xlsx
+++ b/data/input_operation/OperationScenario_Component_Vehicle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF80F3C-5E45-AB4F-A87B-51E8BE91B4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC1CCCB-EDF5-5C43-B686-B0993DD547A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7540" yWindow="-20620" windowWidth="27600" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-640" yWindow="-20540" windowWidth="27600" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Veh" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="17">
   <si>
     <t>ID_Vehicle</t>
   </si>
@@ -911,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -977,13 +977,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>199411</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2">
-        <v>69000</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -1018,19 +1018,19 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>199421</v>
+        <v>199411</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3">
-        <v>38000</v>
+        <v>69000</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -1059,19 +1059,19 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>199451</v>
+        <v>199421</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4">
-        <v>69000</v>
+        <v>38000</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -1100,19 +1100,19 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>199461</v>
+        <v>199451</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5">
-        <v>100000</v>
+        <v>69000</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -1141,19 +1141,19 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>199462</v>
+        <v>199461</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6">
-        <v>38000</v>
+        <v>100000</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -1182,19 +1182,19 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>199491</v>
+        <v>199462</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7">
-        <v>69000</v>
+        <v>38000</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>199511</v>
+        <v>199491</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1264,19 +1264,19 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>199521</v>
+        <v>199511</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9">
-        <v>38000</v>
+        <v>69000</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>199562</v>
+        <v>199521</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1346,19 +1346,19 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1994101</v>
+        <v>199562</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11">
-        <v>100000</v>
+        <v>38000</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -1382,6 +1382,47 @@
         <v>16</v>
       </c>
       <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1994101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>100000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>203</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>0.95</v>
+      </c>
+      <c r="H12">
+        <v>6130</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12">
+        <v>0.9</v>
+      </c>
+      <c r="K12">
+        <v>6130</v>
+      </c>
+      <c r="L12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12">
         <v>0</v>
       </c>
     </row>

--- a/data/input_operation/OperationScenario_Component_Vehicle.xlsx
+++ b/data/input_operation/OperationScenario_Component_Vehicle.xlsx
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC1CCCB-EDF5-5C43-B686-B0993DD547A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE078FED-E38D-2D4B-B1E6-8BB74E0296D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-640" yWindow="-20540" windowWidth="27600" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1840" yWindow="1740" windowWidth="27600" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Veh" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
   <si>
     <t>ID_Vehicle</t>
   </si>
@@ -71,6 +83,12 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>id_parking_at_home_profile</t>
+  </si>
+  <si>
+    <t>id_distance_profile</t>
   </si>
 </sst>
 </file>
@@ -911,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -932,9 +950,11 @@
     <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -974,16 +994,22 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>199411</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>69000</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -1015,22 +1041,28 @@
       <c r="M2">
         <v>0</v>
       </c>
+      <c r="N2">
+        <v>199411</v>
+      </c>
+      <c r="O2">
+        <v>199411</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>199411</v>
+        <v>199421</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3">
-        <v>69000</v>
+        <v>38000</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -1056,22 +1088,28 @@
       <c r="M3">
         <v>0</v>
       </c>
+      <c r="N3">
+        <v>199421</v>
+      </c>
+      <c r="O3">
+        <v>199421</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>199421</v>
+        <v>199451</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4">
-        <v>38000</v>
+        <v>69000</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -1097,22 +1135,28 @@
       <c r="M4">
         <v>0</v>
       </c>
+      <c r="N4">
+        <v>199451</v>
+      </c>
+      <c r="O4">
+        <v>199451</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>199451</v>
+        <v>199461</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5">
-        <v>69000</v>
+        <v>100000</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -1138,22 +1182,28 @@
       <c r="M5">
         <v>0</v>
       </c>
+      <c r="N5">
+        <v>199461</v>
+      </c>
+      <c r="O5">
+        <v>199461</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>199461</v>
+        <v>199462</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6">
-        <v>100000</v>
+        <v>38000</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -1179,22 +1229,28 @@
       <c r="M6">
         <v>0</v>
       </c>
+      <c r="N6">
+        <v>199462</v>
+      </c>
+      <c r="O6">
+        <v>199462</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>199462</v>
+        <v>199491</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7">
-        <v>38000</v>
+        <v>69000</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -1220,10 +1276,16 @@
       <c r="M7">
         <v>0</v>
       </c>
+      <c r="N7">
+        <v>199491</v>
+      </c>
+      <c r="O7">
+        <v>199491</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>199491</v>
+        <v>199511</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1261,22 +1323,28 @@
       <c r="M8">
         <v>0</v>
       </c>
+      <c r="N8">
+        <v>199511</v>
+      </c>
+      <c r="O8">
+        <v>199511</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>199511</v>
+        <v>199521</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9">
-        <v>69000</v>
+        <v>38000</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -1302,10 +1370,16 @@
       <c r="M9">
         <v>0</v>
       </c>
+      <c r="N9">
+        <v>199521</v>
+      </c>
+      <c r="O9">
+        <v>199521</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>199521</v>
+        <v>199562</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1343,87 +1417,11 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="N10">
         <v>199562</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>38000</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>153</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11">
-        <v>0.95</v>
-      </c>
-      <c r="H11">
-        <v>6130</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11">
-        <v>0.9</v>
-      </c>
-      <c r="K11">
-        <v>6130</v>
-      </c>
-      <c r="L11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1994101</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>100000</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>203</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12">
-        <v>0.95</v>
-      </c>
-      <c r="H12">
-        <v>6130</v>
-      </c>
-      <c r="I12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12">
-        <v>0.9</v>
-      </c>
-      <c r="K12">
-        <v>6130</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
+      <c r="O10">
+        <v>199562</v>
       </c>
     </row>
   </sheetData>

--- a/data/input_operation/OperationScenario_Component_Vehicle.xlsx
+++ b/data/input_operation/OperationScenario_Component_Vehicle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF33C77-3389-4CB9-8B70-11133605B8A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236AFF02-8445-724B-BE14-F1647A78B9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="25300" windowHeight="9160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3740" yWindow="-15320" windowWidth="25300" windowHeight="9160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Veh" sheetId="1" r:id="rId1"/>
@@ -558,48 +558,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -615,7 +615,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -913,26 +913,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -973,7 +973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
